--- a/newFileTracker.xlsx
+++ b/newFileTracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Original Path</t>
   </si>
@@ -55,6 +55,9 @@
     <t>TestDirectory/Images/MoreImages/Study Material/Engl319-Module-C4-Solutions.pdf</t>
   </si>
   <si>
+    <t>TestDirectory/Images/MoreImages/Study Material/PDF/htlm/index.html</t>
+  </si>
+  <si>
     <t>TestDirectory/Notes.rtf</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Engl319-Module-C4-Solutions_1.pdf</t>
+  </si>
+  <si>
+    <t>index_3.html</t>
   </si>
   <si>
     <t>Notes_1.rtf</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -593,13 +599,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -607,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -621,13 +627,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -649,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -663,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -677,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -691,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -705,10 +711,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -722,10 +728,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -733,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
@@ -747,13 +753,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -764,10 +770,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -778,10 +784,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -792,10 +798,10 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -806,10 +812,24 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
